--- a/src/gregoleprolo.xlsx
+++ b/src/gregoleprolo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>URL of the post</t>
   </si>
@@ -90,75 +90,34 @@
     <t>Duration of video (only for video posts)</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/BljErdbHfPB/?taken-by=gregoleprolo</t>
-  </si>
-  <si>
-    <t>Salut les frèros 2</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/213168722/lyon-france/</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/Bhzp2kfHkfx/?taken-by=gregoleprolo</t>
-  </si>
-  <si>
-    <t>"Panoramica de Cartagena", Enrique Grau</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/695639735/cartagena-de-indias-colombia/</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/Bht1cMoH2hT/?taken-by=gregoleprolo</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/236718078/minca-magdalena-colombia/</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/BhqzgVjHiWM/?taken-by=gregoleprolo</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/1033867637/parque-tayrona/</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/Bhl82_nHBbj/?taken-by=gregoleprolo</t>
-  </si>
-  <si>
-    <t>Void.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/1021449984/la-guajira-colombia/</t>
+    <t>Media ID</t>
+  </si>
+  <si>
+    <t>Downloadable Link</t>
+  </si>
+  <si>
+    <t>Folder Location on PC of Downloaded Media</t>
+  </si>
+  <si>
+    <t>Media Location PC</t>
+  </si>
+  <si>
+    <t>Name of The File</t>
+  </si>
+  <si>
+    <t>Media Resolution (in Pixel)</t>
+  </si>
+  <si>
+    <t>Size of the Media (in kB)</t>
+  </si>
+  <si>
+    <t>Location Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -176,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,43 +150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7A7979"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E708E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7588E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBC7760"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0BC5D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF273666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF769636"/>
+        <fgColor rgb="FF22B5B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF574DF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6AD1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,24 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6F914"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF574DF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6AD1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,39 +323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:BV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,387 +628,87 @@
     <col min="1" max="24" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="40" customHeight="1">
+    <row r="1" spans="1:74" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="40" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25">
-        <v>18</v>
-      </c>
-      <c r="D2" s="25">
-        <v>4</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <v>41</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25">
-        <v>9</v>
-      </c>
-      <c r="L2" s="26">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25">
-        <v>0</v>
-      </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="27">
-        <v>43303</v>
-      </c>
-      <c r="S2" s="28">
-        <v>0.869537037037037</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" ht="40" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="BU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="25">
-        <v>39</v>
-      </c>
-      <c r="D3" s="25">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>17</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-      <c r="L3" s="26">
-        <v>0.1307692307692308</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="27">
-        <v>43210</v>
-      </c>
-      <c r="S3" s="28">
-        <v>0.8883564814814815</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-    </row>
-    <row r="4" spans="1:24" ht="40" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>14</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25">
-        <v>2</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="27">
-        <v>43208</v>
-      </c>
-      <c r="S4" s="28">
-        <v>0.6285069444444444</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-    </row>
-    <row r="5" spans="1:24" ht="40" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>33</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0.2538461538461538</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="27">
-        <v>43207</v>
-      </c>
-      <c r="S5" s="28">
-        <v>0.4516782407407407</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-    </row>
-    <row r="6" spans="1:24" ht="40" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="25">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>19</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.1461538461538462</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="27">
-        <v>43205</v>
-      </c>
-      <c r="S6" s="28">
-        <v>0.5666319444444445</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>